--- a/modele-bordereau-rdv.xlsx.xlsx
+++ b/modele-bordereau-rdv.xlsx.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\admin-prestation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C9DA3F2-87EE-482B-AD2E-ACF5D0B15C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA65E426-FE87-49E0-BE19-396BE56E7F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="1:21" ht="141.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="126" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
     </row>
-    <row r="20" spans="1:21" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
     </row>
-    <row r="21" spans="1:21" ht="206.25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
     </row>
-    <row r="40" spans="1:21" ht="71.25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>13</v>
       </c>
@@ -3553,7 +3553,7 @@
       <c r="T45" s="13"/>
       <c r="U45" s="13"/>
     </row>
-    <row r="46" spans="1:21" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="75" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>19</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
     </row>
-    <row r="47" spans="1:21" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="75" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>20</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="T48" s="13"/>
       <c r="U48" s="13"/>
     </row>
-    <row r="49" spans="1:21" ht="85.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="75" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>22</v>
       </c>
